--- a/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77803490-DD45-4624-86D5-861192D62B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0D0967-1B75-4492-8B07-A74E0E626084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FB21D5F9-448A-4827-99DF-7EE45AD1D661}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8AE8123D-0AB3-47CE-AFCE-364A64831917}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,87 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
@@ -97,15 +163,9 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,28%</t>
   </si>
   <si>
@@ -124,43 +184,37 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -196,60 +250,6 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -295,6 +295,60 @@
     <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
@@ -319,28 +373,16 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>98,98%</t>
@@ -367,48 +409,6 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -454,6 +454,36 @@
     <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -484,16 +514,22 @@
     <t>1,25%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -506,42 +542,6 @@
   </si>
   <si>
     <t>0,68%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4565ED86-0984-478C-A676-D470D9EE0D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD706B8-F9FF-4D27-9570-25CA96446D87}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1069,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>210758</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1084,85 +1084,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194521</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>631</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405280</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1384</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>642</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2025</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1171,54 +1171,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1230,13 +1230,13 @@
         <v>126960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1245,13 +1245,13 @@
         <v>116002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -1260,19 +1260,19 @@
         <v>242962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1281,13 +1281,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1311,13 +1311,13 @@
         <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1332,13 +1332,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1347,13 +1347,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1362,117 +1362,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>207124</v>
+        <v>210758</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>194521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="N10" s="7">
-        <v>416439</v>
+        <v>405280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1384</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>700</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2025</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>700</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,150 +1481,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>229</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137817</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>460</v>
+      </c>
+      <c r="N13" s="7">
+        <v>286832</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>642</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>58</v>
@@ -1636,49 +1636,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>149015</v>
+        <v>207124</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
@@ -1701,28 +1701,28 @@
         <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>286832</v>
+        <v>416439</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
@@ -1731,25 +1731,25 @@
         <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>67</v>
@@ -1773,13 +1773,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>69</v>
@@ -1791,49 +1791,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,10 +1868,10 @@
         <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2098</v>
@@ -1892,7 +1892,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -1919,10 +1919,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1952,13 +1952,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1967,13 +1967,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1982,13 +1982,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209A9AC-FC99-4509-9224-73AF653CC908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3443798B-ABDC-471F-85D4-61C412749E7D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,100 +2127,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>220733</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21477</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>317</v>
-      </c>
-      <c r="I4" s="7">
-        <v>205398</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>636</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>426131</v>
+        <v>46932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1245</v>
+        <v>896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,54 +2229,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2288,13 +2288,13 @@
         <v>126956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2303,13 +2303,13 @@
         <v>114018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>339</v>
@@ -2318,19 +2318,19 @@
         <v>240974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2339,13 +2339,13 @@
         <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2354,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2369,13 +2369,13 @@
         <v>687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2390,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2405,13 +2405,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2420,87 +2420,87 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>204976</v>
+        <v>220733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="N10" s="7">
-        <v>415276</v>
+        <v>426131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2106</v>
+        <v>1245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2509,28 +2509,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2106</v>
+        <v>1245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,153 +2539,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7">
-        <v>21477</v>
+        <v>154396</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>494</v>
       </c>
       <c r="N13" s="7">
-        <v>46932</v>
+        <v>319727</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>896</v>
+        <v>443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>896</v>
+        <v>1097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,49 +2694,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,100 +2747,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>165331</v>
+        <v>204976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154396</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="N16" s="7">
-        <v>319727</v>
+        <v>415276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>654</v>
+        <v>2106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1097</v>
+        <v>2106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,49 +2849,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,7 +2929,7 @@
         <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2075</v>
@@ -2950,7 +2950,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -2977,7 +2977,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>133</v>
@@ -3010,13 +3010,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3025,13 +3025,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3040,13 +3040,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E3AE20-4FC7-4017-92D3-5B74141DB924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCA22FD-1E06-4743-9538-55BD15D87A41}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3185,100 +3185,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>222364</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="7">
-        <v>334</v>
-      </c>
-      <c r="I4" s="7">
-        <v>207247</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48101</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="7">
-        <v>663</v>
-      </c>
-      <c r="N4" s="7">
-        <v>429611</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1995</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,54 +3287,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3346,13 @@
         <v>122502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3361,13 +3361,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>328</v>
@@ -3376,19 +3376,19 @@
         <v>233682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3463,13 +3463,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3478,84 +3478,84 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>222364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>663</v>
+      </c>
+      <c r="N10" s="7">
+        <v>429611</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7">
-        <v>281</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="7">
-        <v>571</v>
-      </c>
-      <c r="N10" s="7">
-        <v>413156</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>154</v>
@@ -3567,28 +3567,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,108 +3597,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3707,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3722,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,49 +3752,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,55 +3805,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3862,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3877,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3892,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,49 +3907,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>168</v>
@@ -3981,13 +3981,13 @@
         <v>704371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>2123</v>
@@ -4008,7 +4008,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4023,7 +4023,7 @@
         <v>171</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>135</v>
@@ -4068,13 +4068,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4083,13 +4083,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4098,13 +4098,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0D0967-1B75-4492-8B07-A74E0E626084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B15C83-6776-4FE6-8B6B-6EE2C4EB96EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8AE8123D-0AB3-47CE-AFCE-364A64831917}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F2AA48F-2895-49BB-8261-0DB923386040}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="183">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -121,27 +136,33 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
     <t>99,35%</t>
   </si>
   <si>
@@ -151,46 +172,40 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -199,31 +214,31 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>98,74%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -235,19 +250,28 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -256,310 +280,313 @@
     <t>98,96%</t>
   </si>
   <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
 </sst>
 </file>
@@ -570,7 +597,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -666,39 +693,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -750,7 +777,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -861,13 +888,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -876,6 +896,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -940,19 +967,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD706B8-F9FF-4D27-9570-25CA96446D87}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A258A75-FF83-4ACA-94B3-3F8E8549FF25}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1069,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1084,34 +1131,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1120,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1135,34 +1182,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,13 +1224,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1192,13 +1239,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1207,13 +1254,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1224,49 +1271,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242962</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1275,49 +1322,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>673</v>
+        <v>242962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1332,13 +1379,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1347,13 +1394,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1362,13 +1409,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,40 +1426,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>210758</v>
+        <v>1384</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194521</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>405280</v>
+        <v>2025</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1430,40 +1477,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>1384</v>
+        <v>210758</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>194521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>631</v>
       </c>
       <c r="N11" s="7">
-        <v>2025</v>
+        <v>405280</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1487,13 +1534,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1502,13 +1549,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1517,13 +1564,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,49 +1581,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>149015</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>286832</v>
+        <v>642</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,49 +1632,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>642</v>
+        <v>149015</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>642</v>
+        <v>286832</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,13 +1689,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1657,13 +1704,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1672,13 +1719,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1736,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207124</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416439</v>
+        <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,49 +1787,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1844,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1812,13 +1859,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1827,13 +1874,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1081</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>719301</v>
+        <v>3399</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>70</v>
@@ -1859,34 +1906,34 @@
         <v>72</v>
       </c>
       <c r="H19" s="7">
-        <v>1017</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>680379</v>
+        <v>642</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
-        <v>2098</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>1399680</v>
+        <v>4041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,49 +1942,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1081</v>
       </c>
       <c r="D20" s="7">
-        <v>3399</v>
+        <v>719301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>1017</v>
       </c>
       <c r="I20" s="7">
-        <v>642</v>
+        <v>680379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>2098</v>
       </c>
       <c r="N20" s="7">
-        <v>4041</v>
+        <v>1399680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1999,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1967,13 +2014,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1982,13 +2029,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2009,8 +2061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3443798B-ABDC-471F-85D4-61C412749E7D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C8259-C042-43E1-BD9E-269F3FFDA906}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2026,7 +2078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2127,49 +2179,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21477</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46932</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2230,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2287,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2250,13 +2302,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2265,13 +2317,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2334,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126956</v>
+        <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>240974</v>
+        <v>687</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2385,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>687</v>
+        <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="N8" s="7">
-        <v>687</v>
+        <v>240974</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2442,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2405,13 +2457,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2420,13 +2472,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,49 +2489,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>220733</v>
+        <v>1245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>636</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>426131</v>
+        <v>1245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,49 +2540,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>1245</v>
+        <v>220732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>1245</v>
+        <v>426131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,16 +2594,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2560,13 +2612,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2575,13 +2627,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,49 +2644,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165331</v>
+        <v>654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>154396</v>
+        <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>319727</v>
+        <v>1097</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,49 +2695,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D14" s="7">
-        <v>654</v>
+        <v>165331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>443</v>
+        <v>154396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="N14" s="7">
-        <v>1097</v>
+        <v>319727</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2752,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2715,13 +2767,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2730,13 +2782,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,49 +2799,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>204976</v>
+        <v>2106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>415276</v>
+        <v>2106</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,49 +2850,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>2106</v>
+        <v>204976</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>553</v>
       </c>
       <c r="N17" s="7">
-        <v>2106</v>
+        <v>415276</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2907,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2870,13 +2922,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2885,13 +2937,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,49 +2954,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1059</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>743451</v>
+        <v>4691</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>705589</v>
+        <v>1339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
-        <v>2075</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>1449040</v>
+        <v>6030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,49 +3005,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>1059</v>
       </c>
       <c r="D20" s="7">
-        <v>4691</v>
+        <v>743451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1339</v>
+        <v>705589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>2075</v>
       </c>
       <c r="N20" s="7">
-        <v>6030</v>
+        <v>1449040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3062,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3025,13 +3077,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3040,13 +3092,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3067,8 +3124,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCA22FD-1E06-4743-9538-55BD15D87A41}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908014C-0789-4F28-B84B-8B1E9AE69373}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3084,7 +3141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3185,49 +3242,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3293,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3350,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3308,13 +3365,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3323,13 +3380,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,49 +3397,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,49 +3448,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3505,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3463,13 +3520,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3478,13 +3535,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,49 +3552,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>222364</v>
+        <v>1995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
-        <v>663</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>429611</v>
+        <v>1995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,49 +3603,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>1995</v>
+        <v>222364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>663</v>
       </c>
       <c r="N11" s="7">
-        <v>1995</v>
+        <v>429611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3660,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3618,13 +3675,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3633,13 +3690,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,49 +3707,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +3758,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3815,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3773,13 +3830,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3788,13 +3845,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,49 +3862,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>413156</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +3913,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>413156</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3970,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3928,13 +3985,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3943,13 +4000,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +4017,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>742849</v>
+        <v>1995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
-        <v>2123</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1447220</v>
+        <v>1995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4068,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>1995</v>
+        <v>742849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2123</v>
       </c>
       <c r="N20" s="7">
-        <v>1995</v>
+        <v>1447220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4125,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4083,13 +4140,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4098,13 +4155,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B15C83-6776-4FE6-8B6B-6EE2C4EB96EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0238328-BEC1-443E-8B6B-29E95B7952E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F2AA48F-2895-49BB-8261-0DB923386040}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C16A4EB-66B6-4BD0-86F3-837404162876}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="181">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -127,7 +127,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -139,451 +139,445 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -998,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A258A75-FF83-4ACA-94B3-3F8E8549FF25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB61FE-6912-4AA2-8E73-29437901691C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1927,13 +1921,13 @@
         <v>4041</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1942,13 @@
         <v>719301</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>1017</v>
@@ -1963,10 +1957,10 @@
         <v>680379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1978,13 +1972,13 @@
         <v>1399680</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,7 +2034,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C8259-C042-43E1-BD9E-269F3FFDA906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45637065-F8C2-45D3-8DA6-3994072D0EE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2078,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2191,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2200,13 +2194,13 @@
         <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2215,13 +2209,13 @@
         <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,7 +2233,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2251,10 +2245,10 @@
         <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2266,10 +2260,10 @@
         <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2340,13 +2334,13 @@
         <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2361,7 +2355,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2376,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,10 +2385,10 @@
         <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2409,7 +2403,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2424,7 +2418,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2495,13 +2489,13 @@
         <v>1245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2516,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2525,13 +2519,13 @@
         <v>1245</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2537,13 @@
         <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>220732</v>
+        <v>220733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2564,7 +2558,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2576,10 +2570,10 @@
         <v>426131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2594,7 +2588,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2650,13 +2644,13 @@
         <v>654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2665,13 +2659,13 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2686,7 +2680,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,10 +2695,10 @@
         <v>165331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2716,10 +2710,10 @@
         <v>154396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2734,7 +2728,7 @@
         <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2805,13 +2799,13 @@
         <v>2106</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2838,10 +2832,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2850,13 @@
         <v>204976</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>275</v>
@@ -2889,10 +2883,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2954,13 @@
         <v>4691</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2975,13 +2969,13 @@
         <v>1339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2990,13 +2984,13 @@
         <v>6030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>743451</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>1016</v>
@@ -3026,10 +3020,10 @@
         <v>705589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3041,13 +3035,13 @@
         <v>1449040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3097,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908014C-0789-4F28-B84B-8B1E9AE69373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1A4E-F709-4FEF-85AA-791BD45EAA7D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3141,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3254,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3269,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3284,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3296,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3317,7 +3311,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3332,7 +3326,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3409,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3424,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3439,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3451,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3472,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3487,7 +3481,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3558,13 +3552,13 @@
         <v>1995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3579,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3588,13 +3582,13 @@
         <v>1995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3603,13 @@
         <v>222364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>334</v>
@@ -3627,7 +3621,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3639,13 +3633,13 @@
         <v>429611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3734,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3749,7 +3743,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,7 +3761,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3782,7 +3776,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3797,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3874,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3889,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3922,7 +3916,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3937,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4023,13 +4017,13 @@
         <v>1995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4044,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4053,13 +4047,13 @@
         <v>1995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>742849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>1061</v>
@@ -4092,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4104,13 +4098,13 @@
         <v>1447220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4160,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1014-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0238328-BEC1-443E-8B6B-29E95B7952E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B6EE05-8742-4111-B569-A7CC4CB8672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C16A4EB-66B6-4BD0-86F3-837404162876}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1E95609-0110-42BF-BF51-D4305F1A34A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
   <si>
     <t>Menores según si padecen defectos del habla en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,490 +100,421 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen defectos del habla en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>99,86%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>0,42%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,82%</t>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -992,8 +929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB61FE-6912-4AA2-8E73-29437901691C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112DE13-B02C-4F54-A253-31593C90B232}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1125,82 +1062,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1212,54 +1149,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1268,97 +1205,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>2025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>194521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>210758</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>631</v>
       </c>
       <c r="N8" s="7">
-        <v>242962</v>
+        <v>405280</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,72 +1304,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1441,79 +1378,79 @@
         <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2025</v>
+        <v>642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>210758</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="I11" s="7">
-        <v>194521</v>
+        <v>149015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>631</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>405280</v>
+        <v>286832</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,153 +1459,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>642</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>700</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149015</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>286832</v>
+        <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,54 +1614,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1733,97 +1670,97 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>642</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>700</v>
+        <v>4041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="7">
-        <v>207124</v>
+        <v>680379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1081</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>719301</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2098</v>
       </c>
       <c r="N17" s="7">
-        <v>416439</v>
+        <v>1399680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,217 +1769,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3399</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>642</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4041</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>719301</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="7">
-        <v>680379</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1399680</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2055,8 +1836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45637065-F8C2-45D3-8DA6-3994072D0EE5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7122DA6-7C63-4485-A31A-DC7C3FCCCBD8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2072,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2173,100 +1954,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>1583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135495</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>21477</v>
+        <v>152411</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>392</v>
+      </c>
+      <c r="N5" s="7">
+        <v>287906</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46932</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,153 +2056,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1245</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>687</v>
+        <v>1245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>126956</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>220732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>339</v>
+        <v>636</v>
       </c>
       <c r="N8" s="7">
-        <v>240974</v>
+        <v>426131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,153 +2211,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1245</v>
+        <v>443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1245</v>
+        <v>1097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>220733</v>
+        <v>154396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>426131</v>
+        <v>319727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,153 +2366,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>2106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1097</v>
+        <v>2106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165331</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>278</v>
+      </c>
+      <c r="I14" s="7">
+        <v>204976</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="7">
+        <v>553</v>
+      </c>
+      <c r="N14" s="7">
+        <v>415276</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154396</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7">
-        <v>494</v>
-      </c>
-      <c r="N14" s="7">
-        <v>319727</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,153 +2521,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2106</v>
+        <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4691</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6030</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2106</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>278</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>204976</v>
+        <v>705589</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="I17" s="7">
+        <v>743451</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="7">
-        <v>275</v>
-      </c>
-      <c r="I17" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>553</v>
+        <v>2075</v>
       </c>
       <c r="N17" s="7">
-        <v>415276</v>
+        <v>1449040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,217 +2676,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4691</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1339</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6030</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D20" s="7">
-        <v>743451</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705589</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2075</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1449040</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3118,8 +2743,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF1A4E-F709-4FEF-85AA-791BD45EAA7D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0423D44A-A756-4E26-98C2-645895744F9C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3135,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3248,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3263,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3278,58 +2903,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>195</v>
+      </c>
+      <c r="I5" s="7">
+        <v>148076</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>382</v>
+      </c>
+      <c r="N5" s="7">
+        <v>281783</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
-        <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,54 +2963,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3403,88 +3028,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>222364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>663</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>429611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,72 +3118,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3573,73 +3198,73 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1995</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>222364</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>507</v>
+      </c>
+      <c r="N11" s="7">
+        <v>322670</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="7">
-        <v>663</v>
-      </c>
-      <c r="N11" s="7">
-        <v>429611</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,54 +3273,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3713,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3728,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3743,58 +3368,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>290</v>
+      </c>
+      <c r="I14" s="7">
+        <v>205736</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7">
-        <v>259</v>
-      </c>
-      <c r="I14" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>571</v>
+      </c>
+      <c r="N14" s="7">
+        <v>413156</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="7">
-        <v>507</v>
-      </c>
-      <c r="N14" s="7">
-        <v>322670</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,54 +3428,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3868,88 +3493,88 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>742849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>571</v>
+        <v>2123</v>
       </c>
       <c r="N17" s="7">
-        <v>413156</v>
+        <v>1447220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,217 +3583,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1995</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1995</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742849</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1447220</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
